--- a/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.8213589269378916</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.7196181503278831</v>
+        <v>0.7196181503278828</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8025480896642021</v>
@@ -664,7 +664,7 @@
         <v>-0.3913139948716085</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.485575706331627</v>
+        <v>1.485575706331626</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1762601156870586</v>
+        <v>-0.3174986595875457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8805210556885762</v>
+        <v>-1.02051480669315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6349328225706572</v>
+        <v>0.718312277054187</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.500913414051354</v>
+        <v>-1.516407473826065</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.735438001329755</v>
+        <v>-2.831549718383523</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.496921365504124</v>
+        <v>-1.546816946414511</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4500584838807951</v>
+        <v>-0.3009967627867987</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.33455590753098</v>
+        <v>-1.367723428827476</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3113765585043339</v>
+        <v>0.3884269355533649</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.289370963933185</v>
+        <v>2.215286046139134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.541818092912008</v>
+        <v>0.5609583282122803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.617353110983757</v>
+        <v>3.617627879696462</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.160330506916574</v>
+        <v>3.319155055811323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9160928080937645</v>
+        <v>1.101099625535156</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.603879861172941</v>
+        <v>2.50241262455248</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.004965665228966</v>
+        <v>2.05174515569368</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4530327883924441</v>
+        <v>0.4685835022069682</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.678492222180072</v>
+        <v>2.672044272852734</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.4701361651192646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4119009442152833</v>
+        <v>0.4119009442152831</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.8490954323489095</v>
@@ -769,7 +769,7 @@
         <v>-0.4140099888577531</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.571738270765153</v>
+        <v>1.571738270765152</v>
       </c>
     </row>
     <row r="8">
@@ -779,26 +779,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>0.07147932760044502</v>
+        <v>-0.04339646202144538</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6853653484923419</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr"/>
+        <v>-0.6638922911473419</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5327235099215205</v>
+        <v>-0.5417409114549205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3536692483364026</v>
+        <v>-0.2741739199049673</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8895378061214226</v>
+        <v>-0.8766565496750354</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1216463482281841</v>
+        <v>0.1856990952009359</v>
       </c>
     </row>
     <row r="9">
@@ -812,20 +816,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>3.832361748491825</v>
-      </c>
-      <c r="G9" s="6" t="inlineStr"/>
+        <v>5.169333262717021</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.436411284518594</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>5.033413381498575</v>
+        <v>3.472838144183855</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.073520384312371</v>
+        <v>4.479277742129135</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.470423109678688</v>
+        <v>1.334631092442162</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>5.498919403249321</v>
+        <v>5.353744738895266</v>
       </c>
     </row>
     <row r="10">
@@ -875,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4345967537560605</v>
+        <v>-0.3142799696339471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.303580882528096</v>
+        <v>-1.299860300291591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9436380061780164</v>
+        <v>-0.930101230014295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.283845578428594</v>
+        <v>-1.508393589030199</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5485648737198697</v>
+        <v>-0.7854909289102031</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2627397697729317</v>
+        <v>0.1566904456883644</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3907483615745788</v>
+        <v>-0.3812586655834421</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6325224997443252</v>
+        <v>-0.6203677271607608</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1466324523442393</v>
+        <v>-0.05686836771142107</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.923915143905484</v>
+        <v>4.15708955816312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.941224639481167</v>
+        <v>1.911334087995703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.225869768192922</v>
+        <v>2.329083961650278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.151816155623882</v>
+        <v>1.020463521792897</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.952356643802098</v>
+        <v>2.783687364125056</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.126583009890377</v>
+        <v>3.121811219546261</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.251379029915892</v>
+        <v>2.267854232777821</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.715872898279837</v>
+        <v>1.701884816119096</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.155631094910536</v>
+        <v>2.235768589249945</v>
       </c>
     </row>
     <row r="13">
@@ -980,25 +986,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6577678771178632</v>
+        <v>-0.4593839253191014</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.6885231507199031</v>
+        <v>-0.7460207624092798</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.7732221142905581</v>
+      </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1173134059726419</v>
+        <v>-0.1040758443320163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4124661595173871</v>
+        <v>-0.4512873560964004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5724278657355302</v>
+        <v>-0.6063497018139081</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03692780385189327</v>
+        <v>-0.1840829725099017</v>
       </c>
     </row>
     <row r="15">
@@ -1009,25 +1017,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13.01502935082857</v>
+        <v>19.16001826989951</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>8.519221265703186</v>
+        <v>11.22977403451286</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>12.19971664449353</v>
+        <v>12.29206676852431</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.705966148747289</v>
+        <v>5.860628508292892</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.901416851864785</v>
+        <v>4.754142581742824</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.541962235278846</v>
+        <v>6.437047644007447</v>
       </c>
     </row>
     <row r="16">
@@ -1077,31 +1085,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6801265240620009</v>
+        <v>0.6936618296750156</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7145723465400299</v>
+        <v>-0.7204707098402873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1534336951586387</v>
+        <v>0.124031898094192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.502043074948592</v>
+        <v>-2.655296235272834</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.333391876734119</v>
+        <v>-2.381816754034529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.742111686720939</v>
+        <v>-1.739973384093051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3993309361913682</v>
+        <v>0.3756509901424133</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8228676369653217</v>
+        <v>-0.7167833462204202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1746160194241721</v>
+        <v>0.1477804303623671</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1120,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.820506390631981</v>
+        <v>4.050131324100485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.143448093480393</v>
+        <v>1.148238390648454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.737299508045788</v>
+        <v>2.786052064342651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.889000374451259</v>
+        <v>1.685404579922163</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.713038961147015</v>
+        <v>1.249377536737325</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.853763955528263</v>
+        <v>2.790057185275676</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.85779215969738</v>
+        <v>2.883783195146465</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8676952140022586</v>
+        <v>0.9616681375708482</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.425372284425319</v>
+        <v>2.317474121644729</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1161,7 @@
         <v>0.3635752488954022</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.377193381063621</v>
+        <v>2.37719338106362</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01851775356114434</v>
@@ -1182,25 +1190,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3552951889419114</v>
+        <v>0.1790602574588208</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2698736867909649</v>
+        <v>-0.2667539409323004</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I20" s="6" t="n">
-        <v>0.1598016322497602</v>
+        <v>0.169212282923727</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8097106835522377</v>
+        <v>-0.8052695699564629</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09247512155128958</v>
+        <v>-0.0600125897465497</v>
       </c>
     </row>
     <row r="21">
@@ -1211,23 +1221,23 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>18.63515123491364</v>
+        <v>19.08609028732768</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>15.62976699313203</v>
+        <v>13.95416642961578</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>11.49907798683653</v>
+        <v>10.40898253980008</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.041577063710663</v>
+        <v>4.742379589031467</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>9.384590476445739</v>
+        <v>7.30472691579894</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1276,7 @@
         <v>-0.1710374147379384</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.048327633533641</v>
+        <v>1.048327633533642</v>
       </c>
     </row>
     <row r="23">
@@ -1277,31 +1287,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5966427526838149</v>
+        <v>-0.5803038315389636</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.151168091088367</v>
+        <v>-1.118105150133405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04987857803438386</v>
+        <v>-0.05660240743430773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4944275229628236</v>
+        <v>-0.3983317987857012</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.200382645571297</v>
+        <v>-1.179990086975137</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2072367776237803</v>
+        <v>-0.3267732023467921</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2130042338664671</v>
+        <v>-0.2208666611112615</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8979399676422676</v>
+        <v>-0.8008564047633239</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.248773758768438</v>
+        <v>0.3544238362598848</v>
       </c>
     </row>
     <row r="24">
@@ -1312,31 +1322,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.10670314928711</v>
+        <v>1.119434917940509</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3448682757738674</v>
+        <v>0.3706762869546704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.068637743831094</v>
+        <v>1.907486080166781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.483355023151772</v>
+        <v>2.461775989952631</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.118245982771413</v>
+        <v>1.164086813834228</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.397918849110351</v>
+        <v>2.286449361201895</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.31879492574602</v>
+        <v>1.288167892548119</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.410920008995188</v>
+        <v>0.4370766671075107</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.838337684481877</v>
+        <v>1.873082059867266</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1381,7 @@
         <v>-0.1517260187470964</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9299636481429063</v>
+        <v>0.9299636481429067</v>
       </c>
     </row>
     <row r="26">
@@ -1382,31 +1392,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4683321516336932</v>
+        <v>-0.4524765745699625</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8111012532024061</v>
+        <v>-0.778786483104545</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05999907454182381</v>
+        <v>-0.1271914449980063</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3349039186260706</v>
+        <v>-0.2602100724507976</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5892028532222434</v>
+        <v>-0.6158997402787584</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.167977697031554</v>
+        <v>-0.2062695620027027</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1772400404409386</v>
+        <v>-0.1757500227557741</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5943304313173763</v>
+        <v>-0.5545013597809891</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1074948706122659</v>
+        <v>0.1645421887961074</v>
       </c>
     </row>
     <row r="27">
@@ -1417,31 +1427,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.998595851438414</v>
+        <v>2.188032931733549</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.764827685621313</v>
+        <v>0.9731035420228203</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.539394777220698</v>
+        <v>3.338635373664686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.813031259179893</v>
+        <v>3.095398063044042</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.34972270648506</v>
+        <v>1.507959578844906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.897281361232681</v>
+        <v>2.81646605217913</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.699685457604119</v>
+        <v>1.693916108925474</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5231553022443406</v>
+        <v>0.6405253375875496</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.149855435312546</v>
+        <v>2.386466436172865</v>
       </c>
     </row>
     <row r="28">
@@ -1462,7 +1472,7 @@
         <v>1.017218208728542</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.788966978202436</v>
+        <v>1.788966978202435</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.348645521908765</v>
@@ -1480,7 +1490,7 @@
         <v>1.688376364980678</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.171875470067963</v>
+        <v>2.171875470067962</v>
       </c>
     </row>
     <row r="29">
@@ -1491,31 +1501,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8367355293948523</v>
+        <v>-0.8037241058524655</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4819681132049934</v>
+        <v>-0.5146496423678627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2514478251426022</v>
+        <v>0.3909816047844301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.145777113417321</v>
+        <v>1.04780728810668</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7283641713358541</v>
+        <v>0.9368011358651454</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.301655425323777</v>
+        <v>1.302202743225328</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.646834249614111</v>
+        <v>0.7208157237396292</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7447253458874532</v>
+        <v>0.754481367506864</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.26007338012955</v>
+        <v>1.19004065396576</v>
       </c>
     </row>
     <row r="30">
@@ -1526,31 +1536,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.826702246846025</v>
+        <v>1.94893036355964</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.492213784696243</v>
+        <v>2.519036550967227</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.381694548219249</v>
+        <v>3.751055280163693</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.854859692273126</v>
+        <v>3.926888407494144</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.75988261719029</v>
+        <v>3.862073042216449</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.461370901680019</v>
+        <v>3.524707612706232</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.654243517940727</v>
+        <v>2.74058871421399</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.85470499609125</v>
+        <v>2.680055550004742</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.09674584118279</v>
+        <v>3.041029125272497</v>
       </c>
     </row>
     <row r="31">
@@ -1567,7 +1577,7 @@
         <v>1.273200136490967</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.239158698969979</v>
+        <v>2.239158698969978</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>4.255888145897251</v>
@@ -1576,7 +1586,7 @@
         <v>4.019820295538263</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>4.391259451590057</v>
+        <v>4.391259451590058</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>2.534630406552327</v>
@@ -1585,7 +1595,7 @@
         <v>2.613266449127487</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3.361625651326001</v>
+        <v>3.361625651325999</v>
       </c>
     </row>
     <row r="32">
@@ -1596,31 +1606,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6789903401010935</v>
+        <v>-0.730070342167331</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5138395162218276</v>
+        <v>-0.4851635198362198</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1244469618461636</v>
+        <v>-0.02165232065217317</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5627952678781245</v>
+        <v>0.4004704508929509</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1858583862670347</v>
+        <v>0.4512759203367772</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7356087664109056</v>
+        <v>0.8155718629833961</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3237875947898302</v>
+        <v>0.3367982243073402</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4019946922636728</v>
+        <v>0.5287923590552974</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8472930472752495</v>
+        <v>0.8551446170140924</v>
       </c>
     </row>
     <row r="33">
@@ -1631,33 +1641,29 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>7.633111443747443</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>9.237755628263518</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>15.20159397381276</v>
+        <v>20.71923453024254</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>130890.9018441916</v>
+        <v>20.05023526839133</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>24.03971064609714</v>
+        <v>19.68545445887935</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>18.0089076484147</v>
+        <v>20.39352465368246</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>8.529188234753377</v>
+        <v>9.241192236315898</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>8.805316737692616</v>
+        <v>8.61713442868097</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>10.55837292087063</v>
+        <v>10.12016596434239</v>
       </c>
     </row>
     <row r="34">
@@ -1687,7 +1693,7 @@
         <v>0.07989400776925171</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.38478760955361</v>
+        <v>2.384787609553611</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.8401912720963899</v>
@@ -1707,31 +1713,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.996491777255879</v>
+        <v>-1.021148955570957</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.019474010181799</v>
+        <v>-2.823527037131116</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9971530740137572</v>
+        <v>-1.119016290604562</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.3539818979278513</v>
+        <v>-0.508081090618225</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7889014272033484</v>
+        <v>-0.8506294316495241</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.12365164266486</v>
+        <v>1.150966895295802</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.1393900898302394</v>
+        <v>-0.2140046007456777</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9386673631803937</v>
+        <v>-0.8774718392627452</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.074198621006741</v>
+        <v>1.079674167369765</v>
       </c>
     </row>
     <row r="36">
@@ -1742,31 +1748,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.417649416833658</v>
+        <v>5.628993816293702</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.828186496108926</v>
+        <v>1.654978302244926</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.139411770196958</v>
+        <v>7.26976723371057</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.687639256954087</v>
+        <v>1.680809244954944</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.197593789106781</v>
+        <v>1.057169816687014</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.914785347945641</v>
+        <v>3.971514689745827</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.968797128568862</v>
+        <v>1.930659508170237</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.8783043035141458</v>
+        <v>0.9389758271014805</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.778180710843006</v>
+        <v>3.867971550392047</v>
       </c>
     </row>
     <row r="37">
@@ -1792,7 +1798,7 @@
         <v>0.06243749416679815</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.863721280457059</v>
+        <v>1.86372128045706</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5706424272383122</v>
@@ -1812,31 +1818,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4074691962486299</v>
+        <v>-0.4184247066879444</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8342808894829526</v>
+        <v>-0.8458428578455844</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4923532921839048</v>
+        <v>-0.4980404129162241</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2533348711395942</v>
+        <v>-0.3052996088316478</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5045010210432195</v>
+        <v>-0.532192547003032</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5904579681312376</v>
+        <v>0.5643547314329507</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1235783435495264</v>
+        <v>-0.1234371101927951</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4924477815843032</v>
+        <v>-0.4806381663911301</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4838159182449236</v>
+        <v>0.544374191007285</v>
       </c>
     </row>
     <row r="39">
@@ -1847,31 +1853,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.267771247198111</v>
+        <v>5.559849761310758</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.952625909218809</v>
+        <v>1.744493119938056</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.805815487444913</v>
+        <v>5.842331708004821</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.058576579386525</v>
+        <v>1.889207473899698</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.436986132530266</v>
+        <v>1.184587448132575</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>4.380886693578551</v>
+        <v>4.964010022174063</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.868252533481151</v>
+        <v>1.950385877034228</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8621353878227792</v>
+        <v>0.9296426136703457</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.623272650522614</v>
+        <v>3.642611843101546</v>
       </c>
     </row>
     <row r="40">
@@ -1892,7 +1898,7 @@
         <v>0.03278117527302279</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.329416837300364</v>
+        <v>1.329416837300365</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.9219181028995129</v>
@@ -1921,31 +1927,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.3162531613752848</v>
+        <v>0.3433462944990431</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.449833907389826</v>
+        <v>-0.4243411531244722</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.7624787474312651</v>
+        <v>0.714785378859499</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.2896381748015303</v>
+        <v>0.3094828416766657</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.123620632080159</v>
+        <v>-0.1319005253270561</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.13513572438214</v>
+        <v>1.060657532399186</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.4617433335364483</v>
+        <v>0.489865963474286</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.1563840302004973</v>
+        <v>-0.1301552812115125</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.032606600275137</v>
+        <v>1.09297364714331</v>
       </c>
     </row>
     <row r="42">
@@ -1956,31 +1962,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.559183748376777</v>
+        <v>1.618409168800371</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.4983510340596616</v>
+        <v>0.5269694703857939</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.967596305259617</v>
+        <v>1.983967433903428</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.558290285699349</v>
+        <v>1.518064528052559</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.998835387082497</v>
+        <v>0.99992212682461</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.298440002527813</v>
+        <v>2.330919726501619</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.366514771329184</v>
+        <v>1.381933818035055</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6378274209766928</v>
+        <v>0.6002430098738107</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.926399374731496</v>
+        <v>1.99341262078665</v>
       </c>
     </row>
     <row r="43">
@@ -2026,31 +2032,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2473586654703099</v>
+        <v>0.2657802313256982</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3875442352048562</v>
+        <v>-0.3745926209552475</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5769026421496238</v>
+        <v>0.559608035690271</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1705798930948842</v>
+        <v>0.2126400611035063</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09750384902895023</v>
+        <v>-0.1034293881848698</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7536353916054643</v>
+        <v>0.7015049749207436</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.368715079257905</v>
+        <v>0.3795496494997361</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1298948051211533</v>
+        <v>-0.1046479966053457</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8318435256642569</v>
+        <v>0.8291667743033387</v>
       </c>
     </row>
     <row r="45">
@@ -2061,31 +2067,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.235926261444239</v>
+        <v>2.363538254672905</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7539161864148324</v>
+        <v>0.8350998958171011</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.815542415184401</v>
+        <v>2.832305698683192</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.716159328338473</v>
+        <v>1.648925861479499</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.11665940766393</v>
+        <v>1.087516542052172</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.547380691834064</v>
+        <v>2.590630959400422</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.516434133296832</v>
+        <v>1.511850144863988</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7312828779417458</v>
+        <v>0.7327478121773595</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.22613961507029</v>
+        <v>2.289550700394566</v>
       </c>
     </row>
     <row r="46">
